--- a/data/trans_dic/iP30KDB3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDB3_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>97,2%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,31; 99,13</t>
+          <t>91,63; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,33; 100,0</t>
+          <t>90,43; 99,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,95; 98,99</t>
+          <t>94,05; 98,96</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>98,08%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,52; 98,73</t>
+          <t>96,76; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,86; 100,0</t>
+          <t>93,94; 98,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,19; 99,07</t>
+          <t>96,46; 99,01</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,05%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,85; 100,0</t>
+          <t>96,38; 99,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,69; 99,74</t>
+          <t>97,51; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,95; 99,65</t>
+          <t>97,89; 99,69</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,24%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,63; 98,4</t>
+          <t>97,81; 99,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,88; 99,77</t>
+          <t>88,59; 98,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,25; 98,69</t>
+          <t>93,03; 98,76</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>97,94%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,91; 98,49</t>
+          <t>98,15; 99,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>98,19; 99,47</t>
+          <t>94,26; 98,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,22; 98,73</t>
+          <t>96,43; 98,67</t>
         </is>
       </c>
     </row>
